--- a/10000 times simulate result.xlsx
+++ b/10000 times simulate result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690A978D-4FB7-D943-A5C6-E6569956BC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0FA94C-F3DC-874B-8BC6-069FC93B82FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/10000 times simulate result.xlsx
+++ b/10000 times simulate result.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannguyen/Desktop/Tasks/Python/Projects/Predicting EURO 2024/EURO2024 streamlit/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0FA94C-F3DC-874B-8BC6-069FC93B82FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -40,83 +34,83 @@
     <t>Champion</t>
   </si>
   <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
     <t>France</t>
   </si>
   <si>
-    <t>Ukraine</t>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Poland</t>
   </si>
   <si>
     <t>Croatia</t>
   </si>
   <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Romania</t>
   </si>
   <si>
     <t>Georgia</t>
   </si>
   <si>
-    <t>Scotland</t>
-  </si>
-  <si>
     <t>Denmark</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Czechia</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>England</t>
-  </si>
-  <si>
-    <t>Romania</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,14 +173,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -233,7 +219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,27 +251,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,24 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,513 +460,583 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>7.2700000000000001E-2</v>
-      </c>
       <c r="C2">
-        <v>9.0500000000000011E-2</v>
+        <v>0.879</v>
       </c>
       <c r="D2">
-        <v>0.11169999999999999</v>
+        <v>0.607</v>
       </c>
       <c r="E2">
-        <v>0.1391</v>
+        <v>0.337</v>
       </c>
       <c r="F2">
-        <v>0.17749999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>0.183</v>
+      </c>
+      <c r="G2">
+        <v>0.103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>5.4000000000000006E-2</v>
-      </c>
       <c r="C3">
-        <v>4.5899999999999996E-2</v>
+        <v>0.843</v>
       </c>
       <c r="D3">
-        <v>3.7200000000000004E-2</v>
+        <v>0.507</v>
       </c>
       <c r="E3">
-        <v>3.0800000000000001E-2</v>
+        <v>0.238</v>
       </c>
       <c r="F3">
-        <v>2.2599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>0.102</v>
+      </c>
+      <c r="G3">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>6.2E-2</v>
-      </c>
       <c r="C4">
-        <v>6.9699999999999998E-2</v>
+        <v>0.757</v>
       </c>
       <c r="D4">
-        <v>7.4400000000000008E-2</v>
+        <v>0.429</v>
       </c>
       <c r="E4">
-        <v>7.4400000000000008E-2</v>
+        <v>0.212</v>
       </c>
       <c r="F4">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>1.9E-2</v>
-      </c>
       <c r="C5">
-        <v>1.21E-2</v>
+        <v>0.654</v>
       </c>
       <c r="D5">
-        <v>7.8000000000000005E-3</v>
+        <v>0.466</v>
       </c>
       <c r="E5">
-        <v>5.1000000000000004E-3</v>
+        <v>0.233</v>
       </c>
       <c r="F5">
-        <v>3.4000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>0.118</v>
+      </c>
+      <c r="G5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>1.2E-2</v>
-      </c>
       <c r="C6">
-        <v>6.8000000000000005E-3</v>
+        <v>0.396</v>
       </c>
       <c r="D6">
-        <v>4.4000000000000003E-3</v>
+        <v>0.273</v>
       </c>
       <c r="E6">
-        <v>2.2000000000000001E-3</v>
+        <v>0.141</v>
       </c>
       <c r="F6">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>0.064</v>
+      </c>
+      <c r="G6">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>1.04E-2</v>
-      </c>
       <c r="C7">
-        <v>2.5999999999999999E-3</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D7">
-        <v>1.1000000000000001E-3</v>
+        <v>0.34</v>
       </c>
       <c r="E7">
-        <v>4.0000000000000002E-4</v>
+        <v>0.156</v>
       </c>
       <c r="F7">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>0.056</v>
+      </c>
+      <c r="G7">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
-        <v>2.7400000000000001E-2</v>
-      </c>
       <c r="C8">
-        <v>2.7000000000000003E-2</v>
+        <v>0.322</v>
       </c>
       <c r="D8">
-        <v>1.9599999999999999E-2</v>
+        <v>0.359</v>
       </c>
       <c r="E8">
-        <v>1.3899999999999999E-2</v>
+        <v>0.158</v>
       </c>
       <c r="F8">
-        <v>8.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>0.063</v>
+      </c>
+      <c r="G8">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>5.9699999999999996E-2</v>
-      </c>
       <c r="C9">
-        <v>5.21E-2</v>
+        <v>0.821</v>
       </c>
       <c r="D9">
-        <v>4.6799999999999994E-2</v>
+        <v>0.632</v>
       </c>
       <c r="E9">
-        <v>4.0800000000000003E-2</v>
+        <v>0.367</v>
       </c>
       <c r="F9">
-        <v>3.3799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>0.227</v>
+      </c>
+      <c r="G9">
+        <v>0.129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
-        <v>5.91E-2</v>
-      </c>
       <c r="C10">
-        <v>6.9000000000000006E-2</v>
+        <v>0.7</v>
       </c>
       <c r="D10">
-        <v>7.3800000000000004E-2</v>
+        <v>0.547</v>
       </c>
       <c r="E10">
-        <v>7.0400000000000004E-2</v>
+        <v>0.311</v>
       </c>
       <c r="F10">
-        <v>6.8600000000000008E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>0.171</v>
+      </c>
+      <c r="G10">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
-        <v>3.44E-2</v>
-      </c>
       <c r="C11">
-        <v>2.3599999999999999E-2</v>
+        <v>0.136</v>
       </c>
       <c r="D11">
-        <v>1.7000000000000001E-2</v>
+        <v>0.031</v>
       </c>
       <c r="E11">
-        <v>1.0800000000000001E-2</v>
+        <v>0.002</v>
       </c>
       <c r="F11">
-        <v>7.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>5.3099999999999994E-2</v>
-      </c>
       <c r="C12">
-        <v>6.7000000000000004E-2</v>
+        <v>0.123</v>
       </c>
       <c r="D12">
-        <v>7.0400000000000004E-2</v>
+        <v>0.046</v>
       </c>
       <c r="E12">
-        <v>7.5899999999999995E-2</v>
+        <v>0.012</v>
       </c>
       <c r="F12">
-        <v>7.4099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>0.001</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>5.0799999999999998E-2</v>
-      </c>
       <c r="C13">
-        <v>4.9100000000000005E-2</v>
+        <v>0.23</v>
       </c>
       <c r="D13">
-        <v>4.4900000000000002E-2</v>
+        <v>0.125</v>
       </c>
       <c r="E13">
-        <v>3.7200000000000004E-2</v>
+        <v>0.039</v>
       </c>
       <c r="F13">
-        <v>3.2000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>0.012</v>
+      </c>
+      <c r="G13">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
-        <v>3.7000000000000002E-3</v>
-      </c>
       <c r="C14">
-        <v>1.7000000000000001E-3</v>
+        <v>0.86</v>
       </c>
       <c r="D14">
-        <v>7.000000000000001E-4</v>
+        <v>0.649</v>
       </c>
       <c r="E14">
-        <v>4.0000000000000002E-4</v>
+        <v>0.419</v>
       </c>
       <c r="F14">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>0.258</v>
+      </c>
+      <c r="G14">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="B15">
-        <v>7.2599999999999998E-2</v>
-      </c>
       <c r="C15">
-        <v>7.4700000000000003E-2</v>
+        <v>0.79</v>
       </c>
       <c r="D15">
-        <v>8.6500000000000007E-2</v>
+        <v>0.536</v>
       </c>
       <c r="E15">
-        <v>0.1048</v>
+        <v>0.261</v>
       </c>
       <c r="F15">
-        <v>0.12300000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>0.122</v>
+      </c>
+      <c r="G15">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
-        <v>4.3899999999999995E-2</v>
-      </c>
       <c r="C16">
-        <v>2.4399999999999998E-2</v>
+        <v>0.343</v>
       </c>
       <c r="D16">
-        <v>1.6200000000000003E-2</v>
+        <v>0.254</v>
       </c>
       <c r="E16">
-        <v>1.06E-2</v>
+        <v>0.132</v>
       </c>
       <c r="F16">
-        <v>5.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>0.066</v>
+      </c>
+      <c r="G16">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
-        <v>2.1099999999999997E-2</v>
-      </c>
       <c r="C17">
-        <v>1.8200000000000001E-2</v>
+        <v>0.781</v>
       </c>
       <c r="D17">
-        <v>1.41E-2</v>
+        <v>0.54</v>
       </c>
       <c r="E17">
-        <v>1.0800000000000001E-2</v>
+        <v>0.289</v>
       </c>
       <c r="F17">
-        <v>6.1999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>0.146</v>
+      </c>
+      <c r="G17">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
-        <v>6.1799999999999994E-2</v>
-      </c>
       <c r="C18">
-        <v>6.2600000000000003E-2</v>
+        <v>0.837</v>
       </c>
       <c r="D18">
-        <v>6.3E-2</v>
+        <v>0.606</v>
       </c>
       <c r="E18">
-        <v>6.1600000000000002E-2</v>
+        <v>0.323</v>
       </c>
       <c r="F18">
-        <v>5.9299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+        <v>0.175</v>
+      </c>
+      <c r="G18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
-        <v>1.9799999999999998E-2</v>
-      </c>
       <c r="C19">
-        <v>1.8500000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D19">
-        <v>1.46E-2</v>
+        <v>0.028</v>
       </c>
       <c r="E19">
-        <v>1.2E-2</v>
+        <v>0.003</v>
       </c>
       <c r="F19">
-        <v>8.199999999999999E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
       </c>
-      <c r="B20">
-        <v>7.8E-2</v>
-      </c>
       <c r="C20">
-        <v>7.4800000000000005E-2</v>
+        <v>0.037</v>
       </c>
       <c r="D20">
-        <v>8.8100000000000012E-2</v>
+        <v>0.012</v>
       </c>
       <c r="E20">
-        <v>0.10220000000000001</v>
+        <v>0.003</v>
       </c>
       <c r="F20">
-        <v>0.10369999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>0.001</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
-        <v>4.1900000000000007E-2</v>
-      </c>
       <c r="C21">
-        <v>6.1900000000000004E-2</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D21">
-        <v>6.25E-2</v>
+        <v>0.026</v>
       </c>
       <c r="E21">
-        <v>5.91E-2</v>
+        <v>0.003</v>
       </c>
       <c r="F21">
-        <v>5.4900000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="B22">
-        <v>2.6600000000000002E-2</v>
-      </c>
       <c r="C22">
-        <v>2.3700000000000002E-2</v>
+        <v>0.454</v>
       </c>
       <c r="D22">
-        <v>1.78E-2</v>
+        <v>0.274</v>
       </c>
       <c r="E22">
-        <v>1.37E-2</v>
+        <v>0.112</v>
       </c>
       <c r="F22">
-        <v>9.7999999999999997E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+        <v>0.054</v>
+      </c>
+      <c r="G22">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
-        <v>2.18E-2</v>
-      </c>
       <c r="C23">
-        <v>3.0600000000000002E-2</v>
+        <v>0.208</v>
       </c>
       <c r="D23">
-        <v>2.2200000000000001E-2</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E23">
-        <v>1.4199999999999999E-2</v>
+        <v>0.017</v>
       </c>
       <c r="F23">
-        <v>9.3999999999999986E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+        <v>0.004</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
-        <v>7.3200000000000001E-2</v>
-      </c>
       <c r="C24">
-        <v>7.8799999999999995E-2</v>
+        <v>0.326</v>
       </c>
       <c r="D24">
-        <v>9.5799999999999996E-2</v>
+        <v>0.263</v>
       </c>
       <c r="E24">
-        <v>0.1038</v>
+        <v>0.092</v>
       </c>
       <c r="F24">
-        <v>0.1142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+        <v>0.042</v>
+      </c>
+      <c r="G24">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>29</v>
       </c>
-      <c r="B25">
-        <v>2.1099999999999997E-2</v>
-      </c>
       <c r="C25">
-        <v>1.46E-2</v>
+        <v>0.791</v>
       </c>
       <c r="D25">
-        <v>9.300000000000001E-3</v>
+        <v>0.364</v>
       </c>
       <c r="E25">
-        <v>5.7999999999999996E-3</v>
+        <v>0.14</v>
       </c>
       <c r="F25">
-        <v>3.3E-3</v>
+        <v>0.05</v>
+      </c>
+      <c r="G25">
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
